--- a/layer_summation_method/data/f_table.xlsx
+++ b/layer_summation_method/data/f_table.xlsx
@@ -14,9 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>index</t>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -391,37 +415,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E1" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F1" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="G1" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="H1" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="I1" s="1">
-        <v>0.9</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="J1" s="1">
         <v>1</v>

--- a/layer_summation_method/data/f_table.xlsx
+++ b/layer_summation_method/data/f_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,15 +413,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -453,184 +453,184 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>35</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="1">
         <v>23</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="1">
         <v>15</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="1">
         <v>12</v>
       </c>
-      <c r="F2" s="1">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F3" s="1">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1">
         <v>4</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H3" s="1">
         <v>4</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I3" s="1">
         <v>3</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>42</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>30</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <v>21</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="1">
         <v>17</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F4" s="1">
         <v>12</v>
       </c>
-      <c r="G3" s="1">
-        <v>7</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="G4" s="1">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1">
         <v>5</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I4" s="1">
         <v>4</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J4" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>48</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>35</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <v>25</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="1">
         <v>20</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F5" s="1">
         <v>14</v>
       </c>
-      <c r="G4" s="1">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1">
-        <v>7</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="G5" s="1">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1">
         <v>6</v>
-      </c>
-      <c r="J4" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>53</v>
-      </c>
-      <c r="C5" s="1">
-        <v>38</v>
-      </c>
-      <c r="D5" s="1">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1">
-        <v>9</v>
-      </c>
-      <c r="H5" s="1">
-        <v>8</v>
-      </c>
-      <c r="I5" s="1">
-        <v>7</v>
       </c>
       <c r="J5" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
         <v>56</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>40</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <v>29</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <v>24</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F7" s="1">
         <v>17</v>
-      </c>
-      <c r="G6" s="1">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1">
-        <v>8</v>
-      </c>
-      <c r="I6" s="1">
-        <v>7</v>
-      </c>
-      <c r="J6" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>58</v>
-      </c>
-      <c r="C7" s="1">
-        <v>42</v>
-      </c>
-      <c r="D7" s="1">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1">
-        <v>18</v>
       </c>
       <c r="G7" s="1">
         <v>10</v>
@@ -645,24 +645,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1">
         <v>10</v>
@@ -677,21 +677,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1">
         <v>19</v>
@@ -709,27 +709,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C10" s="1">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1">
         <v>8</v>
@@ -741,27 +741,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1">
         <v>20</v>
       </c>
       <c r="G11" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="1">
         <v>8</v>
@@ -773,21 +773,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C12" s="1">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1">
         <v>20</v>
@@ -805,59 +805,59 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C13" s="1">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="1">
         <v>12</v>
       </c>
       <c r="H13" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D14" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="1">
         <v>9</v>
@@ -869,27 +869,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D15" s="1">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="1">
         <v>9</v>
@@ -898,6 +898,38 @@
         <v>8</v>
       </c>
       <c r="J15" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1">
+        <v>107</v>
+      </c>
+      <c r="C16" s="1">
+        <v>74</v>
+      </c>
+      <c r="D16" s="1">
+        <v>53</v>
+      </c>
+      <c r="E16" s="1">
+        <v>38</v>
+      </c>
+      <c r="F16" s="1">
+        <v>23</v>
+      </c>
+      <c r="G16" s="1">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1">
+        <v>9</v>
+      </c>
+      <c r="I16" s="1">
+        <v>8</v>
+      </c>
+      <c r="J16" s="1">
         <v>7</v>
       </c>
     </row>
